--- a/Giro_Jatuh_Tempo_9_2024.xlsx
+++ b/Giro_Jatuh_Tempo_9_2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Tanggal Jatuh Tempo</t>
   </si>
@@ -26,7 +26,19 @@
     <t>Pemegang</t>
   </si>
   <si>
-    <t>Bank</t>
+    <t>Nama Penerima</t>
+  </si>
+  <si>
+    <t>Ak. Penerima</t>
+  </si>
+  <si>
+    <t>Bank Penerima</t>
+  </si>
+  <si>
+    <t>No PVR</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
   </si>
   <si>
     <t>Jumlah</t>
@@ -38,19 +50,46 @@
     <t>PT. Global Energy Lestari</t>
   </si>
   <si>
+    <t>testing</t>
+  </si>
+  <si>
     <t>Bank Negara Indonesia</t>
   </si>
   <si>
+    <t>testing stat giro</t>
+  </si>
+  <si>
     <t>2024-09-25</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>testing kesekian</t>
+  </si>
+  <si>
+    <t>testing testing</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>2024-09-27</t>
   </si>
   <si>
+    <t>Testing 4</t>
+  </si>
+  <si>
+    <t>Tester 4</t>
+  </si>
+  <si>
     <t>2024-09-28</t>
   </si>
   <si>
     <t>CD-1008</t>
+  </si>
+  <si>
+    <t>Williem Chandra</t>
   </si>
   <si>
     <t>Bank Central Asia</t>
@@ -393,7 +432,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,7 +440,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,89 +456,146 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>898896</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2">
+        <v>1234567890</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
         <v>2000000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3">
+        <v>898924</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
         <v>898890</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>898924</v>
-      </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>2147483647</v>
       </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>5000000</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>898891</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E5">
+        <v>2147483647</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5">
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E6">
+        <v>2147483647</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6">
         <v>2147483647</v>
       </c>
     </row>
